--- a/state_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
+++ b/state_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.113957976532959</v>
+        <v>0.1139599238806</v>
       </c>
       <c r="H6" t="n">
         <v>6.2</v>
@@ -975,7 +975,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.113957976532959</v>
+        <v>0.1139599238806</v>
       </c>
       <c r="H7" t="n">
         <v>6.2</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0031102664467295</v>
+        <v>0.0031143000439396</v>
       </c>
       <c r="H8" t="n">
         <v>0.0271547394361733</v>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0031102664467295</v>
+        <v>0.0031143000439396</v>
       </c>
       <c r="H9" t="n">
         <v>0.0271547394361733</v>
@@ -1379,7 +1379,7 @@
         <v>0.240491525423729</v>
       </c>
       <c r="H12" t="n">
-        <v>0.62</v>
+        <v>0.6201</v>
       </c>
       <c r="I12" t="n">
         <v>0.60175</v>
@@ -1456,7 +1456,7 @@
         <v>0.240491525423729</v>
       </c>
       <c r="H13" t="n">
-        <v>0.62</v>
+        <v>0.6201</v>
       </c>
       <c r="I13" t="n">
         <v>0.60175</v>
@@ -1615,7 +1615,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009703554231910499</v>
+        <v>0.009704186723738999</v>
       </c>
       <c r="H15" t="n">
         <v>0.029</v>
@@ -1696,7 +1696,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009703554231910499</v>
+        <v>0.009704186723738999</v>
       </c>
       <c r="H16" t="n">
         <v>0.029</v>
@@ -1777,7 +1777,7 @@
         <v>0.00099</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0028183425619195</v>
+        <v>0.0028199761451904</v>
       </c>
       <c r="H17" t="n">
         <v>0.0271547394361733</v>
@@ -1788,10 +1788,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00099</v>
+        <v>0.001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00251</v>
+        <v>0.00249</v>
       </c>
       <c r="N17" t="n">
         <v>0.01002</v>
@@ -1858,7 +1858,7 @@
         <v>0.00099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0028183425619195</v>
+        <v>0.0028199761451904</v>
       </c>
       <c r="H18" t="n">
         <v>0.0271547394361733</v>
@@ -1869,10 +1869,10 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.00099</v>
+        <v>0.001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00251</v>
+        <v>0.00249</v>
       </c>
       <c r="N18" t="n">
         <v>0.01002</v>
@@ -2111,7 +2111,7 @@
         <v>0.138</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4001</v>
+        <v>0.40017</v>
       </c>
       <c r="N21" t="n">
         <v>0.5643</v>
@@ -2188,7 +2188,7 @@
         <v>0.138</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4001</v>
+        <v>0.40017</v>
       </c>
       <c r="N22" t="n">
         <v>0.5643</v>
@@ -2336,7 +2336,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0095451015576117</v>
+        <v>0.0095463585977943</v>
       </c>
       <c r="H24" t="n">
         <v>0.023</v>
@@ -2417,7 +2417,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0095451015576117</v>
+        <v>0.0095463585977943</v>
       </c>
       <c r="H25" t="n">
         <v>0.023</v>
@@ -2498,7 +2498,7 @@
         <v>0.00113</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0032644420405879</v>
+        <v>0.0032567340056673</v>
       </c>
       <c r="H26" t="n">
         <v>0.0271547394361733</v>
@@ -2509,10 +2509,10 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00371</v>
+        <v>0.00365</v>
       </c>
       <c r="N26" t="n">
         <v>0.01045</v>
@@ -2579,7 +2579,7 @@
         <v>0.00113</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0032644420405879</v>
+        <v>0.0032567340056673</v>
       </c>
       <c r="H27" t="n">
         <v>0.0271547394361733</v>
@@ -2590,10 +2590,10 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00371</v>
+        <v>0.00365</v>
       </c>
       <c r="N27" t="n">
         <v>0.01045</v>
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1965</v>
+        <v>0.19665</v>
       </c>
       <c r="G30" t="n">
-        <v>0.260716666666667</v>
+        <v>0.260718333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0.622</v>
@@ -2832,7 +2832,7 @@
         <v>0.138</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4499</v>
+        <v>0.45002</v>
       </c>
       <c r="N30" t="n">
         <v>0.5780999999999999</v>
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1965</v>
+        <v>0.19665</v>
       </c>
       <c r="G31" t="n">
-        <v>0.260716666666667</v>
+        <v>0.260718333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0.622</v>
@@ -2909,7 +2909,7 @@
         <v>0.138</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4499</v>
+        <v>0.45002</v>
       </c>
       <c r="N31" t="n">
         <v>0.5780999999999999</v>
@@ -3057,7 +3057,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.009273573104046201</v>
+        <v>0.009276057345624899</v>
       </c>
       <c r="H33" t="n">
         <v>0.023</v>
@@ -3138,7 +3138,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009273573104046201</v>
+        <v>0.009276057345624899</v>
       </c>
       <c r="H34" t="n">
         <v>0.023</v>
@@ -3216,27 +3216,27 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.00126</v>
+        <v>0.00125</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0026301495999626</v>
+        <v>0.002596308276703</v>
       </c>
       <c r="H35" t="n">
         <v>0.0215084048918765</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00702</v>
+        <v>0.0068</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.00118</v>
+        <v>0.00117</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00418</v>
+        <v>0.00412</v>
       </c>
       <c r="N35" t="n">
-        <v>0.00635</v>
+        <v>0.00614</v>
       </c>
       <c r="O35" t="n">
         <v>1789383.539</v>
@@ -3297,27 +3297,27 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.00126</v>
+        <v>0.00125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0026301495999626</v>
+        <v>0.002596308276703</v>
       </c>
       <c r="H36" t="n">
         <v>0.0215084048918765</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00702</v>
+        <v>0.0068</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.00118</v>
+        <v>0.00117</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00418</v>
+        <v>0.00412</v>
       </c>
       <c r="N36" t="n">
-        <v>0.00635</v>
+        <v>0.00614</v>
       </c>
       <c r="O36" t="n">
         <v>1789383.539</v>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.1885</v>
+        <v>0.18865</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2511</v>
+        <v>0.251125</v>
       </c>
       <c r="H39" t="n">
         <v>0.622</v>
@@ -3553,7 +3553,7 @@
         <v>0.129</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4499</v>
+        <v>0.45002</v>
       </c>
       <c r="N39" t="n">
         <v>0.5599</v>
@@ -3613,10 +3613,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1885</v>
+        <v>0.18865</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2511</v>
+        <v>0.251125</v>
       </c>
       <c r="H40" t="n">
         <v>0.622</v>
@@ -3630,7 +3630,7 @@
         <v>0.129</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4499</v>
+        <v>0.45002</v>
       </c>
       <c r="N40" t="n">
         <v>0.5599</v>
@@ -3855,7 +3855,7 @@
         <v>0.008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.008329057393945301</v>
+        <v>0.0083315837413135</v>
       </c>
       <c r="H43" t="n">
         <v>0.019</v>
@@ -3936,7 +3936,7 @@
         <v>0.008</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008329057393945301</v>
+        <v>0.0083315837413135</v>
       </c>
       <c r="H44" t="n">
         <v>0.019</v>
@@ -4017,7 +4017,7 @@
         <v>69</v>
       </c>
       <c r="G45" t="n">
-        <v>155.016419181736</v>
+        <v>155.004262457763</v>
       </c>
       <c r="H45" t="n">
         <v>1800</v>
@@ -4102,7 +4102,7 @@
         <v>69</v>
       </c>
       <c r="G46" t="n">
-        <v>155.016419181736</v>
+        <v>155.004262457763</v>
       </c>
       <c r="H46" t="n">
         <v>1800</v>
@@ -4187,7 +4187,7 @@
         <v>69</v>
       </c>
       <c r="G47" t="n">
-        <v>155.016419181736</v>
+        <v>155.004262457763</v>
       </c>
       <c r="H47" t="n">
         <v>1800</v>
@@ -4272,7 +4272,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="n">
-        <v>155.016419181736</v>
+        <v>155.004262457763</v>
       </c>
       <c r="H48" t="n">
         <v>1800</v>
@@ -4431,27 +4431,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00204</v>
+        <v>0.00203</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0029389004026498</v>
+        <v>0.0029022846542085</v>
       </c>
       <c r="H50" t="n">
         <v>0.0273658548672278</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00708</v>
+        <v>0.00685</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.00253</v>
+        <v>0.0025</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00431</v>
+        <v>0.00428</v>
       </c>
       <c r="N50" t="n">
-        <v>0.00637</v>
+        <v>0.00618</v>
       </c>
       <c r="O50" t="n">
         <v>1789383.539</v>
@@ -4512,27 +4512,27 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00204</v>
+        <v>0.00203</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0029389004026498</v>
+        <v>0.0029022846542085</v>
       </c>
       <c r="H51" t="n">
         <v>0.0273658548672278</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00708</v>
+        <v>0.00685</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.00253</v>
+        <v>0.0025</v>
       </c>
       <c r="M51" t="n">
-        <v>0.00431</v>
+        <v>0.00428</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00637</v>
+        <v>0.00618</v>
       </c>
       <c r="O51" t="n">
         <v>1789383.539</v>
@@ -4831,7 +4831,7 @@
         <v>0.197</v>
       </c>
       <c r="G55" t="n">
-        <v>0.247677966101695</v>
+        <v>0.247661016949153</v>
       </c>
       <c r="H55" t="n">
         <v>0.622</v>
@@ -4848,7 +4848,7 @@
         <v>0.41933</v>
       </c>
       <c r="N55" t="n">
-        <v>0.5149</v>
+        <v>0.51479</v>
       </c>
       <c r="O55" t="n">
         <v>1789383.539</v>
@@ -4908,7 +4908,7 @@
         <v>0.197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.247677966101695</v>
+        <v>0.247661016949153</v>
       </c>
       <c r="H56" t="n">
         <v>0.622</v>
@@ -4925,7 +4925,7 @@
         <v>0.41933</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5149</v>
+        <v>0.51479</v>
       </c>
       <c r="O56" t="n">
         <v>1789383.539</v>
@@ -5455,7 +5455,7 @@
         <v>0.007</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0076474768191209</v>
+        <v>0.0076493599544602</v>
       </c>
       <c r="H63" t="n">
         <v>0.014</v>
@@ -5536,7 +5536,7 @@
         <v>0.007</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0076474768191209</v>
+        <v>0.0076493599544602</v>
       </c>
       <c r="H64" t="n">
         <v>0.014</v>
@@ -5617,7 +5617,7 @@
         <v>58.5</v>
       </c>
       <c r="G65" t="n">
-        <v>142.106584728167</v>
+        <v>142.099246933143</v>
       </c>
       <c r="H65" t="n">
         <v>1800</v>
@@ -5702,7 +5702,7 @@
         <v>58.5</v>
       </c>
       <c r="G66" t="n">
-        <v>142.106584728167</v>
+        <v>142.099246933143</v>
       </c>
       <c r="H66" t="n">
         <v>1800</v>
@@ -5787,7 +5787,7 @@
         <v>58.5</v>
       </c>
       <c r="G67" t="n">
-        <v>142.106584728167</v>
+        <v>142.099246933143</v>
       </c>
       <c r="H67" t="n">
         <v>1800</v>
@@ -5872,7 +5872,7 @@
         <v>58.5</v>
       </c>
       <c r="G68" t="n">
-        <v>142.106584728167</v>
+        <v>142.099246933143</v>
       </c>
       <c r="H68" t="n">
         <v>1800</v>
@@ -6031,27 +6031,27 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.00246</v>
+        <v>0.00241</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0032933394239962</v>
+        <v>0.0032546738237997</v>
       </c>
       <c r="H70" t="n">
         <v>0.0273658548672278</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00708</v>
+        <v>0.00685</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00278</v>
+        <v>0.00275</v>
       </c>
       <c r="M70" t="n">
-        <v>0.00566</v>
+        <v>0.00556</v>
       </c>
       <c r="N70" t="n">
-        <v>0.00637</v>
+        <v>0.00627</v>
       </c>
       <c r="O70" t="n">
         <v>1789383.539</v>
@@ -6112,27 +6112,27 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.00246</v>
+        <v>0.00241</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0032933394239962</v>
+        <v>0.0032546738237997</v>
       </c>
       <c r="H71" t="n">
         <v>0.0273658548672278</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00708</v>
+        <v>0.00685</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.00278</v>
+        <v>0.00275</v>
       </c>
       <c r="M71" t="n">
-        <v>0.00566</v>
+        <v>0.00556</v>
       </c>
       <c r="N71" t="n">
-        <v>0.00637</v>
+        <v>0.00627</v>
       </c>
       <c r="O71" t="n">
         <v>1789383.539</v>
@@ -6431,7 +6431,7 @@
         <v>0.202</v>
       </c>
       <c r="G75" t="n">
-        <v>0.24371186440678</v>
+        <v>0.243694915254237</v>
       </c>
       <c r="H75" t="n">
         <v>0.622</v>
@@ -6448,7 +6448,7 @@
         <v>0.38457</v>
       </c>
       <c r="N75" t="n">
-        <v>0.50462</v>
+        <v>0.50423</v>
       </c>
       <c r="O75" t="n">
         <v>1789383.539</v>
@@ -6508,7 +6508,7 @@
         <v>0.202</v>
       </c>
       <c r="G76" t="n">
-        <v>0.24371186440678</v>
+        <v>0.243694915254237</v>
       </c>
       <c r="H76" t="n">
         <v>0.622</v>
@@ -6525,7 +6525,7 @@
         <v>0.38457</v>
       </c>
       <c r="N76" t="n">
-        <v>0.50462</v>
+        <v>0.50423</v>
       </c>
       <c r="O76" t="n">
         <v>1789383.539</v>
@@ -6974,7 +6974,7 @@
         <v>6.5</v>
       </c>
       <c r="G82" t="n">
-        <v>12.5121136792991</v>
+        <v>12.5121323087388</v>
       </c>
       <c r="H82" t="n">
         <v>120</v>
@@ -7055,7 +7055,7 @@
         <v>0.007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0078964487915738</v>
+        <v>0.0078984328091635</v>
       </c>
       <c r="H83" t="n">
         <v>0.023</v>
@@ -7136,7 +7136,7 @@
         <v>0.007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0078964487915738</v>
+        <v>0.0078984328091635</v>
       </c>
       <c r="H84" t="n">
         <v>0.023</v>
@@ -7631,10 +7631,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.0026</v>
+        <v>0.00257</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0037784437329867</v>
+        <v>0.0037392958319385</v>
       </c>
       <c r="H90" t="n">
         <v>0.0273658548672278</v>
@@ -7648,10 +7648,10 @@
         <v>0.00305</v>
       </c>
       <c r="M90" t="n">
-        <v>0.00606</v>
+        <v>0.00591</v>
       </c>
       <c r="N90" t="n">
-        <v>0.00684</v>
+        <v>0.00665</v>
       </c>
       <c r="O90" t="n">
         <v>1789383.539</v>
@@ -7712,10 +7712,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.0026</v>
+        <v>0.00257</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0037784437329867</v>
+        <v>0.0037392958319385</v>
       </c>
       <c r="H91" t="n">
         <v>0.0273658548672278</v>
@@ -7729,10 +7729,10 @@
         <v>0.00305</v>
       </c>
       <c r="M91" t="n">
-        <v>0.00606</v>
+        <v>0.00591</v>
       </c>
       <c r="N91" t="n">
-        <v>0.00684</v>
+        <v>0.00665</v>
       </c>
       <c r="O91" t="n">
         <v>1789383.539</v>
@@ -8031,7 +8031,7 @@
         <v>0.207</v>
       </c>
       <c r="G95" t="n">
-        <v>0.283035714285714</v>
+        <v>0.283017857142857</v>
       </c>
       <c r="H95" t="n">
         <v>2.17</v>
@@ -8045,7 +8045,7 @@
         <v>0.1645</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4416</v>
+        <v>0.44111</v>
       </c>
       <c r="N95" t="n">
         <v>0.55514</v>
@@ -8108,7 +8108,7 @@
         <v>0.207</v>
       </c>
       <c r="G96" t="n">
-        <v>0.283035714285714</v>
+        <v>0.283017857142857</v>
       </c>
       <c r="H96" t="n">
         <v>2.17</v>
@@ -8122,7 +8122,7 @@
         <v>0.1645</v>
       </c>
       <c r="M96" t="n">
-        <v>0.4416</v>
+        <v>0.44111</v>
       </c>
       <c r="N96" t="n">
         <v>0.55514</v>
@@ -8467,6 +8467,1606 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.4146</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.54135</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9.956417823998031</v>
+      </c>
+      <c r="H102" t="n">
+        <v>75</v>
+      </c>
+      <c r="I102" t="n">
+        <v>26.925</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>5</v>
+      </c>
+      <c r="M102" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="N102" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0077103915155328</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.01098</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0077103915155328</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.01098</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>89.96428571428569</v>
+      </c>
+      <c r="H105" t="n">
+        <v>737</v>
+      </c>
+      <c r="I105" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K105" t="n">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="L105" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>120</v>
+      </c>
+      <c r="N105" t="n">
+        <v>191.16</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>89.96428571428569</v>
+      </c>
+      <c r="H106" t="n">
+        <v>737</v>
+      </c>
+      <c r="I106" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K106" t="n">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="L106" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="M106" t="n">
+        <v>120</v>
+      </c>
+      <c r="N106" t="n">
+        <v>191.16</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>89.96428571428569</v>
+      </c>
+      <c r="H107" t="n">
+        <v>737</v>
+      </c>
+      <c r="I107" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="L107" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>120</v>
+      </c>
+      <c r="N107" t="n">
+        <v>191.16</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>89.96428571428569</v>
+      </c>
+      <c r="H108" t="n">
+        <v>737</v>
+      </c>
+      <c r="I108" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K108" t="n">
+        <v>5.35714285714286</v>
+      </c>
+      <c r="L108" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>120</v>
+      </c>
+      <c r="N108" t="n">
+        <v>191.16</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>110</v>
+      </c>
+      <c r="G109" t="n">
+        <v>107.178</v>
+      </c>
+      <c r="H109" t="n">
+        <v>118</v>
+      </c>
+      <c r="I109" t="n">
+        <v>118</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>110</v>
+      </c>
+      <c r="M109" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="N109" t="n">
+        <v>118</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0036077572409278</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0273658548672278</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.01206</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.007979999999999999</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0036077572409278</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0273658548672278</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.01206</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.007979999999999999</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.259571428571429</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0.1225</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.3989</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.50984</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.259571428571429</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0.1225</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.3989</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.50984</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.1396</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M114" t="n">
+        <v>6.4115</v>
+      </c>
+      <c r="N114" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.266758928571429</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.40374</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.51131</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.266758928571429</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.40374</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.51131</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.321071428571429</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.321071428571429</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0121428571428571</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.01696</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.02104</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0121428571428571</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.01696</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.02104</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
+++ b/state_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="72">
   <si>
     <t>site name</t>
   </si>
@@ -142,6 +142,9 @@
     <t>Total Phosphorus (Median)</t>
   </si>
   <si>
+    <t>Visual Clarity (Sediment class 3)</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>2019 - 2023</t>
   </si>
   <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -221,6 +227,9 @@
   </si>
   <si>
     <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,13 +666,13 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>1.8</v>
@@ -678,7 +687,7 @@
         <v>44.875</v>
       </c>
       <c r="L2">
-        <v>1.575</v>
+        <v>1.8</v>
       </c>
       <c r="M2">
         <v>15.9</v>
@@ -693,19 +702,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,13 +725,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>1.275</v>
@@ -752,19 +761,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -775,13 +784,13 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>2.1</v>
@@ -796,7 +805,7 @@
         <v>35.3</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
         <v>10.1</v>
@@ -811,19 +820,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -834,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>2.75</v>
@@ -870,19 +879,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -893,19 +902,19 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>0.008999999999999999</v>
       </c>
       <c r="G6">
-        <v>0.1139599238806</v>
+        <v>0.113957879590474</v>
       </c>
       <c r="H6">
         <v>6.2</v>
@@ -914,7 +923,7 @@
         <v>0.0212</v>
       </c>
       <c r="L6">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M6">
         <v>0.01147</v>
@@ -929,19 +938,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -952,19 +961,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>0.008999999999999999</v>
       </c>
       <c r="G7">
-        <v>0.1139599238806</v>
+        <v>0.113957879590474</v>
       </c>
       <c r="H7">
         <v>6.2</v>
@@ -973,7 +982,7 @@
         <v>0.0212</v>
       </c>
       <c r="L7">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M7">
         <v>0.01147</v>
@@ -988,19 +997,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1011,19 +1020,19 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="G8">
-        <v>0.0031143000439396</v>
+        <v>0.0031243649224445</v>
       </c>
       <c r="H8">
         <v>0.0271547394361733</v>
@@ -1032,7 +1041,7 @@
         <v>0.02009</v>
       </c>
       <c r="L8">
-        <v>0.00062</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="M8">
         <v>0.00354</v>
@@ -1047,19 +1056,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1070,19 +1079,19 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="G9">
-        <v>0.0031143000439396</v>
+        <v>0.0031243649224445</v>
       </c>
       <c r="H9">
         <v>0.0271547394361733</v>
@@ -1091,7 +1100,7 @@
         <v>0.02009</v>
       </c>
       <c r="L9">
-        <v>0.00062</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="M9">
         <v>0.00354</v>
@@ -1106,19 +1115,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1129,13 +1138,13 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>0.177</v>
@@ -1150,7 +1159,7 @@
         <v>0.58945</v>
       </c>
       <c r="L10">
-        <v>0.129</v>
+        <v>0.135</v>
       </c>
       <c r="M10">
         <v>0.35809</v>
@@ -1165,19 +1174,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1188,13 +1197,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>0.177</v>
@@ -1209,7 +1218,7 @@
         <v>0.58945</v>
       </c>
       <c r="L11">
-        <v>0.129</v>
+        <v>0.135</v>
       </c>
       <c r="M11">
         <v>0.35809</v>
@@ -1224,19 +1233,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1247,10 +1256,10 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>0.183</v>
@@ -1265,7 +1274,7 @@
         <v>0.60175</v>
       </c>
       <c r="L12">
-        <v>0.141</v>
+        <v>0.145</v>
       </c>
       <c r="M12">
         <v>0.36735</v>
@@ -1280,19 +1289,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1303,10 +1312,10 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>0.183</v>
@@ -1321,7 +1330,7 @@
         <v>0.60175</v>
       </c>
       <c r="L13">
-        <v>0.141</v>
+        <v>0.145</v>
       </c>
       <c r="M13">
         <v>0.36735</v>
@@ -1336,19 +1345,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1359,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>2.5</v>
@@ -1395,19 +1404,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1418,19 +1427,19 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0.008999999999999999</v>
       </c>
       <c r="G15">
-        <v>0.009704186723738999</v>
+        <v>0.0097037158439412</v>
       </c>
       <c r="H15">
         <v>0.029</v>
@@ -1454,19 +1463,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1477,19 +1486,19 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>0.008999999999999999</v>
       </c>
       <c r="G16">
-        <v>0.009704186723738999</v>
+        <v>0.0097037158439412</v>
       </c>
       <c r="H16">
         <v>0.029</v>
@@ -1513,19 +1522,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1536,19 +1545,19 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17">
-        <v>0.00099</v>
+        <v>0.00102</v>
       </c>
       <c r="G17">
-        <v>0.0028199761451904</v>
+        <v>0.0028372383430524</v>
       </c>
       <c r="H17">
         <v>0.0271547394361733</v>
@@ -1557,10 +1566,10 @@
         <v>0.01903</v>
       </c>
       <c r="L17">
-        <v>0.001</v>
+        <v>0.00104</v>
       </c>
       <c r="M17">
-        <v>0.00249</v>
+        <v>0.00255</v>
       </c>
       <c r="N17">
         <v>0.01002</v>
@@ -1572,19 +1581,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1595,19 +1604,19 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>0.00099</v>
+        <v>0.00102</v>
       </c>
       <c r="G18">
-        <v>0.0028199761451904</v>
+        <v>0.0028372383430524</v>
       </c>
       <c r="H18">
         <v>0.0271547394361733</v>
@@ -1616,10 +1625,10 @@
         <v>0.01903</v>
       </c>
       <c r="L18">
-        <v>0.001</v>
+        <v>0.00104</v>
       </c>
       <c r="M18">
-        <v>0.00249</v>
+        <v>0.00255</v>
       </c>
       <c r="N18">
         <v>0.01002</v>
@@ -1631,19 +1640,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1654,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>0.176</v>
@@ -1690,19 +1699,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1713,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>0.176</v>
@@ -1749,19 +1758,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1772,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>0.183</v>
@@ -1805,19 +1814,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1828,10 +1837,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>0.183</v>
@@ -1861,19 +1870,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1884,13 +1893,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>3.15</v>
@@ -1905,7 +1914,7 @@
         <v>44.625</v>
       </c>
       <c r="L23">
-        <v>4.125</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
         <v>17.375</v>
@@ -1920,19 +1929,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1943,19 +1952,19 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <v>0.008999999999999999</v>
       </c>
       <c r="G24">
-        <v>0.0095463585977943</v>
+        <v>0.0095456355854543</v>
       </c>
       <c r="H24">
         <v>0.023</v>
@@ -1964,7 +1973,7 @@
         <v>0.0145</v>
       </c>
       <c r="L24">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M24">
         <v>0.012</v>
@@ -1979,19 +1988,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2002,19 +2011,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>0.008999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.0095463585977943</v>
+        <v>0.0095456355854543</v>
       </c>
       <c r="H25">
         <v>0.023</v>
@@ -2023,7 +2032,7 @@
         <v>0.0145</v>
       </c>
       <c r="L25">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M25">
         <v>0.012</v>
@@ -2038,19 +2047,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2061,19 +2070,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26">
-        <v>0.00113</v>
+        <v>0.00116</v>
       </c>
       <c r="G26">
-        <v>0.0032567340056673</v>
+        <v>0.0032871354313185</v>
       </c>
       <c r="H26">
         <v>0.0271547394361733</v>
@@ -2082,10 +2091,10 @@
         <v>0.01939</v>
       </c>
       <c r="L26">
-        <v>0.00113</v>
+        <v>0.00116</v>
       </c>
       <c r="M26">
-        <v>0.00365</v>
+        <v>0.00375</v>
       </c>
       <c r="N26">
         <v>0.01045</v>
@@ -2097,19 +2106,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2120,19 +2129,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27">
-        <v>0.00113</v>
+        <v>0.00116</v>
       </c>
       <c r="G27">
-        <v>0.0032567340056673</v>
+        <v>0.0032871354313185</v>
       </c>
       <c r="H27">
         <v>0.0271547394361733</v>
@@ -2141,10 +2150,10 @@
         <v>0.01939</v>
       </c>
       <c r="L27">
-        <v>0.00113</v>
+        <v>0.00116</v>
       </c>
       <c r="M27">
-        <v>0.00365</v>
+        <v>0.00375</v>
       </c>
       <c r="N27">
         <v>0.01045</v>
@@ -2156,19 +2165,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2179,13 +2188,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>0.1924</v>
@@ -2200,7 +2209,7 @@
         <v>0.5885</v>
       </c>
       <c r="L28">
-        <v>0.12885</v>
+        <v>0.12835</v>
       </c>
       <c r="M28">
         <v>0.43998</v>
@@ -2215,19 +2224,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2238,13 +2247,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>0.1924</v>
@@ -2259,7 +2268,7 @@
         <v>0.5885</v>
       </c>
       <c r="L29">
-        <v>0.12885</v>
+        <v>0.12835</v>
       </c>
       <c r="M29">
         <v>0.43998</v>
@@ -2274,19 +2283,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2297,10 +2306,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>0.19665</v>
@@ -2315,7 +2324,7 @@
         <v>0.6015</v>
       </c>
       <c r="L30">
-        <v>0.138</v>
+        <v>0.135</v>
       </c>
       <c r="M30">
         <v>0.45002</v>
@@ -2330,19 +2339,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2353,10 +2362,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>0.19665</v>
@@ -2371,7 +2380,7 @@
         <v>0.6015</v>
       </c>
       <c r="L31">
-        <v>0.138</v>
+        <v>0.135</v>
       </c>
       <c r="M31">
         <v>0.45002</v>
@@ -2386,19 +2395,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2409,13 +2418,13 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>4.8</v>
@@ -2430,7 +2439,7 @@
         <v>39.875</v>
       </c>
       <c r="L32">
-        <v>2.75</v>
+        <v>4.125</v>
       </c>
       <c r="M32">
         <v>17.15</v>
@@ -2445,19 +2454,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2468,19 +2477,19 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>0.008999999999999999</v>
       </c>
       <c r="G33">
-        <v>0.009276057345624899</v>
+        <v>0.009275537352354099</v>
       </c>
       <c r="H33">
         <v>0.023</v>
@@ -2489,7 +2498,7 @@
         <v>0.0145</v>
       </c>
       <c r="L33">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M33">
         <v>0.012</v>
@@ -2504,19 +2513,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2527,19 +2536,19 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>0.008999999999999999</v>
       </c>
       <c r="G34">
-        <v>0.009276057345624899</v>
+        <v>0.009275537352354099</v>
       </c>
       <c r="H34">
         <v>0.023</v>
@@ -2548,7 +2557,7 @@
         <v>0.0145</v>
       </c>
       <c r="L34">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M34">
         <v>0.012</v>
@@ -2563,19 +2572,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2586,34 +2595,34 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F35">
-        <v>0.00125</v>
+        <v>0.00129</v>
       </c>
       <c r="G35">
-        <v>0.002596308276703</v>
+        <v>0.0026464440396688</v>
       </c>
       <c r="H35">
         <v>0.0215084048918765</v>
       </c>
       <c r="I35">
-        <v>0.0068</v>
+        <v>0.00695</v>
       </c>
       <c r="L35">
-        <v>0.00117</v>
+        <v>0.00127</v>
       </c>
       <c r="M35">
-        <v>0.00412</v>
+        <v>0.00421</v>
       </c>
       <c r="N35">
-        <v>0.00614</v>
+        <v>0.00629</v>
       </c>
       <c r="O35">
         <v>1789383.539</v>
@@ -2622,19 +2631,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2645,34 +2654,34 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F36">
-        <v>0.00125</v>
+        <v>0.00129</v>
       </c>
       <c r="G36">
-        <v>0.002596308276703</v>
+        <v>0.0026464440396688</v>
       </c>
       <c r="H36">
         <v>0.0215084048918765</v>
       </c>
       <c r="I36">
-        <v>0.0068</v>
+        <v>0.00695</v>
       </c>
       <c r="L36">
-        <v>0.00117</v>
+        <v>0.00127</v>
       </c>
       <c r="M36">
-        <v>0.00412</v>
+        <v>0.00421</v>
       </c>
       <c r="N36">
-        <v>0.00614</v>
+        <v>0.00629</v>
       </c>
       <c r="O36">
         <v>1789383.539</v>
@@ -2681,19 +2690,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2704,13 +2713,13 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>0.182</v>
@@ -2725,7 +2734,7 @@
         <v>0.57865</v>
       </c>
       <c r="L37">
-        <v>0.12345</v>
+        <v>0.12095</v>
       </c>
       <c r="M37">
         <v>0.43998</v>
@@ -2740,19 +2749,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2763,13 +2772,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>0.182</v>
@@ -2784,7 +2793,7 @@
         <v>0.57865</v>
       </c>
       <c r="L38">
-        <v>0.12345</v>
+        <v>0.12095</v>
       </c>
       <c r="M38">
         <v>0.43998</v>
@@ -2799,19 +2808,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2822,10 +2831,10 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>0.18865</v>
@@ -2840,7 +2849,7 @@
         <v>0.592</v>
       </c>
       <c r="L39">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
       <c r="M39">
         <v>0.45002</v>
@@ -2855,19 +2864,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2878,10 +2887,10 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F40">
         <v>0.18865</v>
@@ -2896,7 +2905,7 @@
         <v>0.592</v>
       </c>
       <c r="L40">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
       <c r="M40">
         <v>0.45002</v>
@@ -2911,19 +2920,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2934,13 +2943,13 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>0.489</v>
@@ -2955,7 +2964,7 @@
         <v>0.602</v>
       </c>
       <c r="L41">
-        <v>0.4995</v>
+        <v>0.489</v>
       </c>
       <c r="M41">
         <v>0.59045</v>
@@ -2970,16 +2979,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2990,13 +2999,13 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42">
         <v>5.475</v>
@@ -3011,7 +3020,7 @@
         <v>40.1</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M42">
         <v>17.32</v>
@@ -3026,19 +3035,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3049,19 +3058,19 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F43">
         <v>0.008</v>
       </c>
       <c r="G43">
-        <v>0.0083315837413135</v>
+        <v>0.0083310549345974</v>
       </c>
       <c r="H43">
         <v>0.019</v>
@@ -3070,7 +3079,7 @@
         <v>0.013</v>
       </c>
       <c r="L43">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="M43">
         <v>0.011</v>
@@ -3085,19 +3094,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3108,19 +3117,19 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>0.008</v>
       </c>
       <c r="G44">
-        <v>0.0083315837413135</v>
+        <v>0.0083310549345974</v>
       </c>
       <c r="H44">
         <v>0.019</v>
@@ -3129,7 +3138,7 @@
         <v>0.013</v>
       </c>
       <c r="L44">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="M44">
         <v>0.011</v>
@@ -3144,19 +3153,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3167,19 +3176,19 @@
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>69</v>
       </c>
       <c r="G45">
-        <v>155.004262457763</v>
+        <v>154.993516933197</v>
       </c>
       <c r="H45">
         <v>1800</v>
@@ -3194,7 +3203,7 @@
         <v>14.0350877192982</v>
       </c>
       <c r="L45">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="M45">
         <v>184.3</v>
@@ -3209,19 +3218,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3232,19 +3241,19 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>69</v>
       </c>
       <c r="G46">
-        <v>155.004262457763</v>
+        <v>154.993516933197</v>
       </c>
       <c r="H46">
         <v>1800</v>
@@ -3259,7 +3268,7 @@
         <v>14.0350877192982</v>
       </c>
       <c r="L46">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="M46">
         <v>184.3</v>
@@ -3274,19 +3283,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3297,19 +3306,19 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <v>69</v>
       </c>
       <c r="G47">
-        <v>155.004262457763</v>
+        <v>154.993516933197</v>
       </c>
       <c r="H47">
         <v>1800</v>
@@ -3324,7 +3333,7 @@
         <v>14.0350877192982</v>
       </c>
       <c r="L47">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="M47">
         <v>184.3</v>
@@ -3339,19 +3348,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3362,19 +3371,19 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>69</v>
       </c>
       <c r="G48">
-        <v>155.004262457763</v>
+        <v>154.993516933197</v>
       </c>
       <c r="H48">
         <v>1800</v>
@@ -3389,7 +3398,7 @@
         <v>14.0350877192982</v>
       </c>
       <c r="L48">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="M48">
         <v>184.3</v>
@@ -3404,19 +3413,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3427,13 +3436,13 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <v>113.33</v>
@@ -3448,7 +3457,7 @@
         <v>126</v>
       </c>
       <c r="L49">
-        <v>115.665</v>
+        <v>113.33</v>
       </c>
       <c r="M49">
         <v>123.2</v>
@@ -3463,16 +3472,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3483,34 +3492,34 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F50">
-        <v>0.00203</v>
+        <v>0.00209</v>
       </c>
       <c r="G50">
-        <v>0.0029022846542085</v>
+        <v>0.002952002623643</v>
       </c>
       <c r="H50">
         <v>0.0273658548672278</v>
       </c>
       <c r="I50">
-        <v>0.00685</v>
+        <v>0.00701</v>
       </c>
       <c r="L50">
-        <v>0.0025</v>
+        <v>0.00247</v>
       </c>
       <c r="M50">
-        <v>0.00428</v>
+        <v>0.00433</v>
       </c>
       <c r="N50">
-        <v>0.00618</v>
+        <v>0.00633</v>
       </c>
       <c r="O50">
         <v>1789383.539</v>
@@ -3519,19 +3528,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3542,34 +3551,34 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51">
-        <v>0.00203</v>
+        <v>0.00209</v>
       </c>
       <c r="G51">
-        <v>0.0029022846542085</v>
+        <v>0.002952002623643</v>
       </c>
       <c r="H51">
         <v>0.0273658548672278</v>
       </c>
       <c r="I51">
-        <v>0.00685</v>
+        <v>0.00701</v>
       </c>
       <c r="L51">
-        <v>0.0025</v>
+        <v>0.00247</v>
       </c>
       <c r="M51">
-        <v>0.00428</v>
+        <v>0.00433</v>
       </c>
       <c r="N51">
-        <v>0.00618</v>
+        <v>0.00633</v>
       </c>
       <c r="O51">
         <v>1789383.539</v>
@@ -3578,19 +3587,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3601,13 +3610,13 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52">
         <v>0.187</v>
@@ -3622,7 +3631,7 @@
         <v>0.5438499999999999</v>
       </c>
       <c r="L52">
-        <v>0.1165</v>
+        <v>0.123</v>
       </c>
       <c r="M52">
         <v>0.41098</v>
@@ -3637,19 +3646,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3660,13 +3669,13 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>0.187</v>
@@ -3681,7 +3690,7 @@
         <v>0.5438499999999999</v>
       </c>
       <c r="L53">
-        <v>0.1165</v>
+        <v>0.123</v>
       </c>
       <c r="M53">
         <v>0.41098</v>
@@ -3696,19 +3705,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3719,13 +3728,13 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F54">
         <v>5.5</v>
@@ -3740,7 +3749,7 @@
         <v>7.62</v>
       </c>
       <c r="L54">
-        <v>6.01</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
         <v>7.235</v>
@@ -3755,16 +3764,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3775,10 +3784,10 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F55">
         <v>0.197</v>
@@ -3793,7 +3802,7 @@
         <v>0.55885</v>
       </c>
       <c r="L55">
-        <v>0.124</v>
+        <v>0.133</v>
       </c>
       <c r="M55">
         <v>0.41933</v>
@@ -3808,19 +3817,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3831,10 +3840,10 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>0.197</v>
@@ -3849,7 +3858,7 @@
         <v>0.55885</v>
       </c>
       <c r="L56">
-        <v>0.124</v>
+        <v>0.133</v>
       </c>
       <c r="M56">
         <v>0.41933</v>
@@ -3864,19 +3873,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3887,10 +3896,10 @@
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F57">
         <v>0.29</v>
@@ -3905,7 +3914,7 @@
         <v>0.59</v>
       </c>
       <c r="L57">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="M57">
         <v>0.4492</v>
@@ -3920,19 +3929,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3943,10 +3952,10 @@
         <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F58">
         <v>0.29</v>
@@ -3961,7 +3970,7 @@
         <v>0.59</v>
       </c>
       <c r="L58">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="M58">
         <v>0.4492</v>
@@ -3976,19 +3985,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3999,10 +4008,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>0.011</v>
@@ -4032,19 +4041,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4055,10 +4064,10 @@
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>0.011</v>
@@ -4088,19 +4097,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4111,13 +4120,13 @@
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F61">
         <v>0.49</v>
@@ -4147,16 +4156,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4167,13 +4176,13 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F62">
         <v>6.25</v>
@@ -4188,7 +4197,7 @@
         <v>41.85</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="M62">
         <v>17.66</v>
@@ -4203,19 +4212,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4226,19 +4235,19 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63">
         <v>0.007</v>
       </c>
       <c r="G63">
-        <v>0.0076493599544602</v>
+        <v>0.0076493100085554</v>
       </c>
       <c r="H63">
         <v>0.014</v>
@@ -4262,19 +4271,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4285,19 +4294,19 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F64">
         <v>0.007</v>
       </c>
       <c r="G64">
-        <v>0.0076493599544602</v>
+        <v>0.0076493100085554</v>
       </c>
       <c r="H64">
         <v>0.014</v>
@@ -4321,19 +4330,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4344,19 +4353,19 @@
         <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <v>58.5</v>
       </c>
       <c r="G65">
-        <v>142.099246933143</v>
+        <v>142.093104809498</v>
       </c>
       <c r="H65">
         <v>1800</v>
@@ -4371,7 +4380,7 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L65">
-        <v>91</v>
+        <v>93.5</v>
       </c>
       <c r="M65">
         <v>150</v>
@@ -4386,19 +4395,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4409,19 +4418,19 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <v>58.5</v>
       </c>
       <c r="G66">
-        <v>142.099246933143</v>
+        <v>142.093104809498</v>
       </c>
       <c r="H66">
         <v>1800</v>
@@ -4436,7 +4445,7 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L66">
-        <v>91</v>
+        <v>93.5</v>
       </c>
       <c r="M66">
         <v>150</v>
@@ -4451,19 +4460,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4474,19 +4483,19 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F67">
         <v>58.5</v>
       </c>
       <c r="G67">
-        <v>142.099246933143</v>
+        <v>142.093104809498</v>
       </c>
       <c r="H67">
         <v>1800</v>
@@ -4501,7 +4510,7 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L67">
-        <v>91</v>
+        <v>93.5</v>
       </c>
       <c r="M67">
         <v>150</v>
@@ -4516,19 +4525,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4539,19 +4548,19 @@
         <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F68">
         <v>58.5</v>
       </c>
       <c r="G68">
-        <v>142.099246933143</v>
+        <v>142.093104809498</v>
       </c>
       <c r="H68">
         <v>1800</v>
@@ -4566,7 +4575,7 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L68">
-        <v>91</v>
+        <v>93.5</v>
       </c>
       <c r="M68">
         <v>150</v>
@@ -4581,19 +4590,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4604,13 +4613,13 @@
         <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F69">
         <v>113.33</v>
@@ -4640,16 +4649,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4660,34 +4669,34 @@
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F70">
-        <v>0.00241</v>
+        <v>0.00247</v>
       </c>
       <c r="G70">
-        <v>0.0032546738237997</v>
+        <v>0.003297440025596</v>
       </c>
       <c r="H70">
         <v>0.0273658548672278</v>
       </c>
       <c r="I70">
-        <v>0.00685</v>
+        <v>0.00701</v>
       </c>
       <c r="L70">
-        <v>0.00275</v>
+        <v>0.00284</v>
       </c>
       <c r="M70">
-        <v>0.00556</v>
+        <v>0.00562</v>
       </c>
       <c r="N70">
-        <v>0.00627</v>
+        <v>0.00633</v>
       </c>
       <c r="O70">
         <v>1789383.539</v>
@@ -4696,19 +4705,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q70" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R70" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4719,34 +4728,34 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F71">
-        <v>0.00241</v>
+        <v>0.00247</v>
       </c>
       <c r="G71">
-        <v>0.0032546738237997</v>
+        <v>0.003297440025596</v>
       </c>
       <c r="H71">
         <v>0.0273658548672278</v>
       </c>
       <c r="I71">
-        <v>0.00685</v>
+        <v>0.00701</v>
       </c>
       <c r="L71">
-        <v>0.00275</v>
+        <v>0.00284</v>
       </c>
       <c r="M71">
-        <v>0.00556</v>
+        <v>0.00562</v>
       </c>
       <c r="N71">
-        <v>0.00627</v>
+        <v>0.00633</v>
       </c>
       <c r="O71">
         <v>1789383.539</v>
@@ -4755,19 +4764,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q71" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4778,13 +4787,13 @@
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F72">
         <v>0.196</v>
@@ -4799,7 +4808,7 @@
         <v>0.52605</v>
       </c>
       <c r="L72">
-        <v>0.1715</v>
+        <v>0.153</v>
       </c>
       <c r="M72">
         <v>0.37486</v>
@@ -4814,19 +4823,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R72" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4837,13 +4846,13 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F73">
         <v>0.196</v>
@@ -4858,7 +4867,7 @@
         <v>0.52605</v>
       </c>
       <c r="L73">
-        <v>0.1715</v>
+        <v>0.153</v>
       </c>
       <c r="M73">
         <v>0.37486</v>
@@ -4873,19 +4882,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R73" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4896,13 +4905,13 @@
         <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74">
         <v>6.21</v>
@@ -4932,16 +4941,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4952,10 +4961,10 @@
         <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F75">
         <v>0.202</v>
@@ -4970,7 +4979,7 @@
         <v>0.53745</v>
       </c>
       <c r="L75">
-        <v>0.173</v>
+        <v>0.159</v>
       </c>
       <c r="M75">
         <v>0.38457</v>
@@ -4985,19 +4994,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5008,10 +5017,10 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F76">
         <v>0.202</v>
@@ -5026,7 +5035,7 @@
         <v>0.53745</v>
       </c>
       <c r="L76">
-        <v>0.173</v>
+        <v>0.159</v>
       </c>
       <c r="M76">
         <v>0.38457</v>
@@ -5041,19 +5050,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q76" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5064,10 +5073,10 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F77">
         <v>0.29</v>
@@ -5082,7 +5091,7 @@
         <v>0.5875</v>
       </c>
       <c r="L77">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="M77">
         <v>0.4441</v>
@@ -5097,19 +5106,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q77" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5120,10 +5129,10 @@
         <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F78">
         <v>0.29</v>
@@ -5138,7 +5147,7 @@
         <v>0.5875</v>
       </c>
       <c r="L78">
-        <v>0.235</v>
+        <v>0.23</v>
       </c>
       <c r="M78">
         <v>0.4441</v>
@@ -5153,19 +5162,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5176,10 +5185,10 @@
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F79">
         <v>0.01</v>
@@ -5194,7 +5203,7 @@
         <v>0.0301</v>
       </c>
       <c r="L79">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M79">
         <v>0.017</v>
@@ -5209,19 +5218,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5232,10 +5241,10 @@
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F80">
         <v>0.01</v>
@@ -5250,7 +5259,7 @@
         <v>0.0301</v>
       </c>
       <c r="L80">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M80">
         <v>0.017</v>
@@ -5265,19 +5274,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5288,13 +5297,13 @@
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F81">
         <v>0.43</v>
@@ -5324,16 +5333,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R81" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5344,19 +5353,19 @@
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F82">
         <v>6.5</v>
       </c>
       <c r="G82">
-        <v>12.5121323087388</v>
+        <v>12.5121429215869</v>
       </c>
       <c r="H82">
         <v>120</v>
@@ -5365,7 +5374,7 @@
         <v>40.2</v>
       </c>
       <c r="L82">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="M82">
         <v>19.28</v>
@@ -5380,19 +5389,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q82" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R82" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5403,19 +5412,19 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <v>0.007</v>
       </c>
       <c r="G83">
-        <v>0.0078984328091635</v>
+        <v>0.007898380187585201</v>
       </c>
       <c r="H83">
         <v>0.023</v>
@@ -5439,19 +5448,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5462,19 +5471,19 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F84">
         <v>0.007</v>
       </c>
       <c r="G84">
-        <v>0.0078984328091635</v>
+        <v>0.007898380187585201</v>
       </c>
       <c r="H84">
         <v>0.023</v>
@@ -5498,19 +5507,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q84" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R84" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5521,22 +5530,22 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F85">
         <v>58</v>
       </c>
       <c r="G85">
-        <v>104.854545454545</v>
+        <v>104.84</v>
       </c>
       <c r="H85">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I85">
         <v>422.5</v>
@@ -5548,10 +5557,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="L85">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M85">
-        <v>144.9</v>
+        <v>144.56</v>
       </c>
       <c r="N85">
         <v>295</v>
@@ -5563,19 +5572,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q85" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U85" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5586,22 +5595,22 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86">
         <v>58</v>
       </c>
       <c r="G86">
-        <v>104.854545454545</v>
+        <v>104.84</v>
       </c>
       <c r="H86">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I86">
         <v>422.5</v>
@@ -5613,10 +5622,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="L86">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M86">
-        <v>144.9</v>
+        <v>144.56</v>
       </c>
       <c r="N86">
         <v>295</v>
@@ -5628,19 +5637,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q86" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U86" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5651,22 +5660,22 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F87">
         <v>58</v>
       </c>
       <c r="G87">
-        <v>104.854545454545</v>
+        <v>104.84</v>
       </c>
       <c r="H87">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I87">
         <v>422.5</v>
@@ -5678,10 +5687,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="L87">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M87">
-        <v>144.9</v>
+        <v>144.56</v>
       </c>
       <c r="N87">
         <v>295</v>
@@ -5693,19 +5702,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R87" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U87" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5716,22 +5725,22 @@
         <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <v>58</v>
       </c>
       <c r="G88">
-        <v>104.854545454545</v>
+        <v>104.84</v>
       </c>
       <c r="H88">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I88">
         <v>422.5</v>
@@ -5743,10 +5752,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="L88">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M88">
-        <v>144.9</v>
+        <v>144.56</v>
       </c>
       <c r="N88">
         <v>295</v>
@@ -5758,19 +5767,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q88" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U88" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5781,13 +5790,13 @@
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F89">
         <v>113</v>
@@ -5817,16 +5826,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5837,19 +5846,19 @@
         <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F90">
-        <v>0.00257</v>
+        <v>0.0026</v>
       </c>
       <c r="G90">
-        <v>0.0037392958319385</v>
+        <v>0.0037751001132973</v>
       </c>
       <c r="H90">
         <v>0.0273658548672278</v>
@@ -5861,10 +5870,10 @@
         <v>0.00305</v>
       </c>
       <c r="M90">
-        <v>0.00591</v>
+        <v>0.00605</v>
       </c>
       <c r="N90">
-        <v>0.00665</v>
+        <v>0.00681</v>
       </c>
       <c r="O90">
         <v>1789383.539</v>
@@ -5873,19 +5882,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q90" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R90" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5896,19 +5905,19 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F91">
-        <v>0.00257</v>
+        <v>0.0026</v>
       </c>
       <c r="G91">
-        <v>0.0037392958319385</v>
+        <v>0.0037751001132973</v>
       </c>
       <c r="H91">
         <v>0.0273658548672278</v>
@@ -5920,10 +5929,10 @@
         <v>0.00305</v>
       </c>
       <c r="M91">
-        <v>0.00591</v>
+        <v>0.00605</v>
       </c>
       <c r="N91">
-        <v>0.00665</v>
+        <v>0.00681</v>
       </c>
       <c r="O91">
         <v>1789383.539</v>
@@ -5932,19 +5941,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5955,13 +5964,13 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F92">
         <v>0.198</v>
@@ -5976,7 +5985,7 @@
         <v>0.5664</v>
       </c>
       <c r="L92">
-        <v>0.163</v>
+        <v>0.1435</v>
       </c>
       <c r="M92">
         <v>0.43958</v>
@@ -5991,19 +6000,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6014,13 +6023,13 @@
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F93">
         <v>0.198</v>
@@ -6035,7 +6044,7 @@
         <v>0.5664</v>
       </c>
       <c r="L93">
-        <v>0.163</v>
+        <v>0.1435</v>
       </c>
       <c r="M93">
         <v>0.43958</v>
@@ -6050,19 +6059,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6073,13 +6082,13 @@
         <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F94">
         <v>5.5</v>
@@ -6109,16 +6118,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q94" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6129,10 +6138,10 @@
         <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F95">
         <v>0.207</v>
@@ -6147,7 +6156,7 @@
         <v>0.5697</v>
       </c>
       <c r="L95">
-        <v>0.1645</v>
+        <v>0.1495</v>
       </c>
       <c r="M95">
         <v>0.44111</v>
@@ -6162,19 +6171,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q95" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6185,10 +6194,10 @@
         <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F96">
         <v>0.207</v>
@@ -6203,7 +6212,7 @@
         <v>0.5697</v>
       </c>
       <c r="L96">
-        <v>0.1645</v>
+        <v>0.1495</v>
       </c>
       <c r="M96">
         <v>0.44111</v>
@@ -6218,19 +6227,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6241,10 +6250,10 @@
         <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F97">
         <v>0.28</v>
@@ -6259,7 +6268,7 @@
         <v>0.607</v>
       </c>
       <c r="L97">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="M97">
         <v>0.48</v>
@@ -6274,19 +6283,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q97" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6297,10 +6306,10 @@
         <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F98">
         <v>0.28</v>
@@ -6315,7 +6324,7 @@
         <v>0.607</v>
       </c>
       <c r="L98">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="M98">
         <v>0.48</v>
@@ -6330,19 +6339,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q98" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R98" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S98" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6353,10 +6362,10 @@
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F99">
         <v>0.01</v>
@@ -6371,7 +6380,7 @@
         <v>0.0258</v>
       </c>
       <c r="L99">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M99">
         <v>0.015</v>
@@ -6386,19 +6395,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U99" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6409,10 +6418,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E100" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F100">
         <v>0.01</v>
@@ -6427,7 +6436,7 @@
         <v>0.0258</v>
       </c>
       <c r="L100">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M100">
         <v>0.015</v>
@@ -6442,19 +6451,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q100" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U100" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6465,13 +6474,13 @@
         <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F101">
         <v>0.363</v>
@@ -6501,16 +6510,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q101" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6521,19 +6530,19 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F102">
         <v>6</v>
       </c>
       <c r="G102">
-        <v>9.956417823998031</v>
+        <v>9.956428637088591</v>
       </c>
       <c r="H102">
         <v>75</v>
@@ -6542,7 +6551,7 @@
         <v>26.925</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="M102">
         <v>16.47</v>
@@ -6557,19 +6566,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q102" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R102" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U102" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6580,19 +6589,19 @@
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F103">
         <v>0.007</v>
       </c>
       <c r="G103">
-        <v>0.0077103915155328</v>
+        <v>0.007710609035964</v>
       </c>
       <c r="H103">
         <v>0.023</v>
@@ -6616,19 +6625,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q103" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R103" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S103" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U103" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6639,19 +6648,19 @@
         <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F104">
         <v>0.007</v>
       </c>
       <c r="G104">
-        <v>0.0077103915155328</v>
+        <v>0.007710609035964</v>
       </c>
       <c r="H104">
         <v>0.023</v>
@@ -6675,19 +6684,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q104" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R104" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S104" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6698,22 +6707,22 @@
         <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F105">
         <v>53.5</v>
       </c>
       <c r="G105">
-        <v>89.96428571428569</v>
+        <v>89.98571428571429</v>
       </c>
       <c r="H105">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I105">
         <v>312.4</v>
@@ -6725,7 +6734,7 @@
         <v>5.35714285714286</v>
       </c>
       <c r="L105">
-        <v>88.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="M105">
         <v>120</v>
@@ -6740,19 +6749,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q105" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R105" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U105" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6763,22 +6772,22 @@
         <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F106">
         <v>53.5</v>
       </c>
       <c r="G106">
-        <v>89.96428571428569</v>
+        <v>89.98571428571429</v>
       </c>
       <c r="H106">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I106">
         <v>312.4</v>
@@ -6790,7 +6799,7 @@
         <v>5.35714285714286</v>
       </c>
       <c r="L106">
-        <v>88.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="M106">
         <v>120</v>
@@ -6805,19 +6814,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q106" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R106" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S106" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U106" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6828,22 +6837,22 @@
         <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E107" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F107">
         <v>53.5</v>
       </c>
       <c r="G107">
-        <v>89.96428571428569</v>
+        <v>89.98571428571429</v>
       </c>
       <c r="H107">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I107">
         <v>312.4</v>
@@ -6855,7 +6864,7 @@
         <v>5.35714285714286</v>
       </c>
       <c r="L107">
-        <v>88.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="M107">
         <v>120</v>
@@ -6870,19 +6879,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q107" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R107" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S107" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U107" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6893,22 +6902,22 @@
         <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F108">
         <v>53.5</v>
       </c>
       <c r="G108">
-        <v>89.96428571428569</v>
+        <v>89.98571428571429</v>
       </c>
       <c r="H108">
-        <v>737</v>
+        <v>736.8</v>
       </c>
       <c r="I108">
         <v>312.4</v>
@@ -6920,7 +6929,7 @@
         <v>5.35714285714286</v>
       </c>
       <c r="L108">
-        <v>88.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="M108">
         <v>120</v>
@@ -6935,19 +6944,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q108" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R108" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U108" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6961,10 +6970,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F109">
         <v>110</v>
@@ -6994,16 +7003,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q109" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R109" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S109" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7014,19 +7023,19 @@
         <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F110">
         <v>0.00236</v>
       </c>
       <c r="G110">
-        <v>0.0036077572409278</v>
+        <v>0.0036279624259131</v>
       </c>
       <c r="H110">
         <v>0.0273658548672278</v>
@@ -7035,13 +7044,13 @@
         <v>0.01206</v>
       </c>
       <c r="L110">
-        <v>0.0031</v>
+        <v>0.00305</v>
       </c>
       <c r="M110">
-        <v>0.00582</v>
+        <v>0.00595</v>
       </c>
       <c r="N110">
-        <v>0.007979999999999999</v>
+        <v>0.00809</v>
       </c>
       <c r="O110">
         <v>1789383.539</v>
@@ -7050,19 +7059,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q110" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R110" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S110" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T110" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U110" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7073,19 +7082,19 @@
         <v>26</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F111">
         <v>0.00236</v>
       </c>
       <c r="G111">
-        <v>0.0036077572409278</v>
+        <v>0.0036279624259131</v>
       </c>
       <c r="H111">
         <v>0.0273658548672278</v>
@@ -7094,13 +7103,13 @@
         <v>0.01206</v>
       </c>
       <c r="L111">
-        <v>0.0031</v>
+        <v>0.00305</v>
       </c>
       <c r="M111">
-        <v>0.00582</v>
+        <v>0.00595</v>
       </c>
       <c r="N111">
-        <v>0.007979999999999999</v>
+        <v>0.00809</v>
       </c>
       <c r="O111">
         <v>1789383.539</v>
@@ -7109,19 +7118,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q111" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R111" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S111" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T111" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U111" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7132,13 +7141,13 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F112">
         <v>0.189</v>
@@ -7168,19 +7177,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q112" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R112" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U112" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7191,13 +7200,13 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E113" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F113">
         <v>0.189</v>
@@ -7227,19 +7236,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q113" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R113" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S113" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T113" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U113" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7250,13 +7259,13 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E114" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F114">
         <v>5.5</v>
@@ -7286,16 +7295,16 @@
         <v>5495386.718</v>
       </c>
       <c r="Q114" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R114" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S114" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7306,10 +7315,10 @@
         <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F115">
         <v>0.19525</v>
@@ -7339,19 +7348,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q115" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R115" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S115" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T115" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7362,10 +7371,10 @@
         <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F116">
         <v>0.19525</v>
@@ -7395,19 +7404,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q116" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R116" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T116" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U116" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7418,10 +7427,10 @@
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F117">
         <v>0.255</v>
@@ -7436,7 +7445,7 @@
         <v>0.571</v>
       </c>
       <c r="L117">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="M117">
         <v>0.4792</v>
@@ -7451,19 +7460,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q117" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R117" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T117" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U117" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7474,10 +7483,10 @@
         <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F118">
         <v>0.255</v>
@@ -7492,7 +7501,7 @@
         <v>0.571</v>
       </c>
       <c r="L118">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="M118">
         <v>0.4792</v>
@@ -7507,19 +7516,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q118" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R118" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T118" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U118" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7530,10 +7539,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E119" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F119">
         <v>0.0105</v>
@@ -7548,7 +7557,7 @@
         <v>0.0258</v>
       </c>
       <c r="L119">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M119">
         <v>0.01696</v>
@@ -7563,19 +7572,19 @@
         <v>5495386.718</v>
       </c>
       <c r="Q119" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R119" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S119" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T119" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U119" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7586,10 +7595,10 @@
         <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F120">
         <v>0.0105</v>
@@ -7604,7 +7613,7 @@
         <v>0.0258</v>
       </c>
       <c r="L120">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M120">
         <v>0.01696</v>
@@ -7619,19 +7628,1255 @@
         <v>5495386.718</v>
       </c>
       <c r="Q120" t="s">
+        <v>59</v>
+      </c>
+      <c r="R120" t="s">
+        <v>60</v>
+      </c>
+      <c r="S120" t="s">
+        <v>61</v>
+      </c>
+      <c r="T120" t="s">
+        <v>62</v>
+      </c>
+      <c r="U120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
         <v>57</v>
       </c>
-      <c r="R120" t="s">
-        <v>58</v>
-      </c>
-      <c r="S120" t="s">
-        <v>59</v>
-      </c>
-      <c r="T120" t="s">
-        <v>60</v>
-      </c>
-      <c r="U120" t="s">
+      <c r="E121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121">
+        <v>0.49</v>
+      </c>
+      <c r="G121">
+        <v>0.448</v>
+      </c>
+      <c r="H121">
+        <v>0.569</v>
+      </c>
+      <c r="I121">
+        <v>0.569</v>
+      </c>
+      <c r="L121">
+        <v>0.49</v>
+      </c>
+      <c r="M121">
+        <v>0.55465</v>
+      </c>
+      <c r="N121">
+        <v>0.569</v>
+      </c>
+      <c r="O121">
+        <v>1789383.539</v>
+      </c>
+      <c r="P121">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>59</v>
+      </c>
+      <c r="R121" t="s">
+        <v>60</v>
+      </c>
+      <c r="S121" t="s">
+        <v>61</v>
+      </c>
+      <c r="T121" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E122" t="s">
+        <v>58</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122">
+        <v>9.748738675865861</v>
+      </c>
+      <c r="H122">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>29.55</v>
+      </c>
+      <c r="L122">
+        <v>6</v>
+      </c>
+      <c r="M122">
+        <v>14.755</v>
+      </c>
+      <c r="N122">
+        <v>26.11</v>
+      </c>
+      <c r="O122">
+        <v>1789383.539</v>
+      </c>
+      <c r="P122">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>59</v>
+      </c>
+      <c r="R122" t="s">
+        <v>60</v>
+      </c>
+      <c r="S122" t="s">
+        <v>61</v>
+      </c>
+      <c r="T122" t="s">
+        <v>62</v>
+      </c>
+      <c r="U122" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" t="s">
+        <v>58</v>
+      </c>
+      <c r="F123">
+        <v>3.8</v>
+      </c>
+      <c r="G123">
+        <v>4.11978608626177</v>
+      </c>
+      <c r="H123">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I123">
+        <v>6.7</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>5.955</v>
+      </c>
+      <c r="N123">
+        <v>6.29204</v>
+      </c>
+      <c r="O123">
+        <v>1789383.539</v>
+      </c>
+      <c r="P123">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>59</v>
+      </c>
+      <c r="R123" t="s">
+        <v>60</v>
+      </c>
+      <c r="S123" t="s">
+        <v>61</v>
+      </c>
+      <c r="T123" t="s">
+        <v>62</v>
+      </c>
+      <c r="U123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" t="s">
+        <v>57</v>
+      </c>
+      <c r="E124" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124">
+        <v>0.006</v>
+      </c>
+      <c r="G124">
+        <v>0.0070535714285714</v>
+      </c>
+      <c r="H124">
+        <v>0.023</v>
+      </c>
+      <c r="I124">
+        <v>0.014</v>
+      </c>
+      <c r="L124">
+        <v>0.0055</v>
+      </c>
+      <c r="M124">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N124">
+        <v>0.014</v>
+      </c>
+      <c r="O124">
+        <v>1789383.539</v>
+      </c>
+      <c r="P124">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>59</v>
+      </c>
+      <c r="R124" t="s">
+        <v>60</v>
+      </c>
+      <c r="S124" t="s">
+        <v>61</v>
+      </c>
+      <c r="T124" t="s">
+        <v>62</v>
+      </c>
+      <c r="U124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" t="s">
+        <v>58</v>
+      </c>
+      <c r="F125">
+        <v>0.006</v>
+      </c>
+      <c r="G125">
+        <v>0.0070535714285714</v>
+      </c>
+      <c r="H125">
+        <v>0.023</v>
+      </c>
+      <c r="I125">
+        <v>0.014</v>
+      </c>
+      <c r="L125">
+        <v>0.0055</v>
+      </c>
+      <c r="M125">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N125">
+        <v>0.014</v>
+      </c>
+      <c r="O125">
+        <v>1789383.539</v>
+      </c>
+      <c r="P125">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>59</v>
+      </c>
+      <c r="R125" t="s">
+        <v>60</v>
+      </c>
+      <c r="S125" t="s">
+        <v>61</v>
+      </c>
+      <c r="T125" t="s">
+        <v>62</v>
+      </c>
+      <c r="U125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E126" t="s">
+        <v>58</v>
+      </c>
+      <c r="F126">
+        <v>46</v>
+      </c>
+      <c r="G126">
+        <v>92.125</v>
+      </c>
+      <c r="H126">
+        <v>736.8</v>
+      </c>
+      <c r="I126">
+        <v>332.68</v>
+      </c>
+      <c r="J126">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K126">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L126">
+        <v>87.2</v>
+      </c>
+      <c r="M126">
+        <v>111.44</v>
+      </c>
+      <c r="N126">
+        <v>293.648</v>
+      </c>
+      <c r="O126">
+        <v>1789383.539</v>
+      </c>
+      <c r="P126">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>59</v>
+      </c>
+      <c r="R126" t="s">
+        <v>60</v>
+      </c>
+      <c r="S126" t="s">
+        <v>61</v>
+      </c>
+      <c r="T126" t="s">
+        <v>62</v>
+      </c>
+      <c r="U126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127">
+        <v>46</v>
+      </c>
+      <c r="G127">
+        <v>92.125</v>
+      </c>
+      <c r="H127">
+        <v>736.8</v>
+      </c>
+      <c r="I127">
+        <v>332.68</v>
+      </c>
+      <c r="J127">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K127">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L127">
+        <v>87.2</v>
+      </c>
+      <c r="M127">
+        <v>111.44</v>
+      </c>
+      <c r="N127">
+        <v>293.648</v>
+      </c>
+      <c r="O127">
+        <v>1789383.539</v>
+      </c>
+      <c r="P127">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>59</v>
+      </c>
+      <c r="R127" t="s">
+        <v>60</v>
+      </c>
+      <c r="S127" t="s">
+        <v>61</v>
+      </c>
+      <c r="T127" t="s">
+        <v>62</v>
+      </c>
+      <c r="U127" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" t="s">
+        <v>58</v>
+      </c>
+      <c r="F128">
+        <v>46</v>
+      </c>
+      <c r="G128">
+        <v>92.125</v>
+      </c>
+      <c r="H128">
+        <v>736.8</v>
+      </c>
+      <c r="I128">
+        <v>332.68</v>
+      </c>
+      <c r="J128">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K128">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L128">
+        <v>87.2</v>
+      </c>
+      <c r="M128">
+        <v>111.44</v>
+      </c>
+      <c r="N128">
+        <v>293.648</v>
+      </c>
+      <c r="O128">
+        <v>1789383.539</v>
+      </c>
+      <c r="P128">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>59</v>
+      </c>
+      <c r="R128" t="s">
+        <v>60</v>
+      </c>
+      <c r="S128" t="s">
+        <v>61</v>
+      </c>
+      <c r="T128" t="s">
+        <v>62</v>
+      </c>
+      <c r="U128" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129">
+        <v>46</v>
+      </c>
+      <c r="G129">
+        <v>92.125</v>
+      </c>
+      <c r="H129">
+        <v>736.8</v>
+      </c>
+      <c r="I129">
+        <v>332.68</v>
+      </c>
+      <c r="J129">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K129">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L129">
+        <v>87.2</v>
+      </c>
+      <c r="M129">
+        <v>111.44</v>
+      </c>
+      <c r="N129">
+        <v>293.648</v>
+      </c>
+      <c r="O129">
+        <v>1789383.539</v>
+      </c>
+      <c r="P129">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>59</v>
+      </c>
+      <c r="R129" t="s">
+        <v>60</v>
+      </c>
+      <c r="S129" t="s">
+        <v>61</v>
+      </c>
+      <c r="T129" t="s">
+        <v>62</v>
+      </c>
+      <c r="U129" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>105</v>
+      </c>
+      <c r="G130">
+        <v>106.178</v>
+      </c>
+      <c r="H130">
+        <v>118</v>
+      </c>
+      <c r="I130">
+        <v>118</v>
+      </c>
+      <c r="L130">
+        <v>105</v>
+      </c>
+      <c r="M130">
+        <v>116.25</v>
+      </c>
+      <c r="N130">
+        <v>118</v>
+      </c>
+      <c r="O130">
+        <v>1789383.539</v>
+      </c>
+      <c r="P130">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>59</v>
+      </c>
+      <c r="R130" t="s">
+        <v>60</v>
+      </c>
+      <c r="S130" t="s">
+        <v>61</v>
+      </c>
+      <c r="T130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131">
+        <v>0.00215</v>
+      </c>
+      <c r="G131">
+        <v>0.0034018407208343</v>
+      </c>
+      <c r="H131">
+        <v>0.0273658548672278</v>
+      </c>
+      <c r="I131">
+        <v>0.01184</v>
+      </c>
+      <c r="L131">
+        <v>0.00275</v>
+      </c>
+      <c r="M131">
+        <v>0.00533</v>
+      </c>
+      <c r="N131">
+        <v>0.00859</v>
+      </c>
+      <c r="O131">
+        <v>1789383.539</v>
+      </c>
+      <c r="P131">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>59</v>
+      </c>
+      <c r="R131" t="s">
+        <v>60</v>
+      </c>
+      <c r="S131" t="s">
+        <v>61</v>
+      </c>
+      <c r="T131" t="s">
+        <v>62</v>
+      </c>
+      <c r="U131" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132">
+        <v>0.00215</v>
+      </c>
+      <c r="G132">
+        <v>0.0034018407208343</v>
+      </c>
+      <c r="H132">
+        <v>0.0273658548672278</v>
+      </c>
+      <c r="I132">
+        <v>0.01184</v>
+      </c>
+      <c r="L132">
+        <v>0.00275</v>
+      </c>
+      <c r="M132">
+        <v>0.00533</v>
+      </c>
+      <c r="N132">
+        <v>0.00859</v>
+      </c>
+      <c r="O132">
+        <v>1789383.539</v>
+      </c>
+      <c r="P132">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>59</v>
+      </c>
+      <c r="R132" t="s">
+        <v>60</v>
+      </c>
+      <c r="S132" t="s">
+        <v>61</v>
+      </c>
+      <c r="T132" t="s">
+        <v>62</v>
+      </c>
+      <c r="U132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" t="s">
+        <v>57</v>
+      </c>
+      <c r="E133" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133">
+        <v>0.1795</v>
+      </c>
+      <c r="G133">
+        <v>0.244767857142857</v>
+      </c>
+      <c r="H133">
+        <v>2.13</v>
+      </c>
+      <c r="I133">
+        <v>0.5664</v>
+      </c>
+      <c r="L133">
+        <v>0.115</v>
+      </c>
+      <c r="M133">
+        <v>0.39312</v>
+      </c>
+      <c r="N133">
+        <v>0.50984</v>
+      </c>
+      <c r="O133">
+        <v>1789383.539</v>
+      </c>
+      <c r="P133">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>59</v>
+      </c>
+      <c r="R133" t="s">
+        <v>60</v>
+      </c>
+      <c r="S133" t="s">
+        <v>61</v>
+      </c>
+      <c r="T133" t="s">
+        <v>62</v>
+      </c>
+      <c r="U133" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134">
+        <v>0.1795</v>
+      </c>
+      <c r="G134">
+        <v>0.244767857142857</v>
+      </c>
+      <c r="H134">
+        <v>2.13</v>
+      </c>
+      <c r="I134">
+        <v>0.5664</v>
+      </c>
+      <c r="L134">
+        <v>0.115</v>
+      </c>
+      <c r="M134">
+        <v>0.39312</v>
+      </c>
+      <c r="N134">
+        <v>0.50984</v>
+      </c>
+      <c r="O134">
+        <v>1789383.539</v>
+      </c>
+      <c r="P134">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R134" t="s">
+        <v>60</v>
+      </c>
+      <c r="S134" t="s">
+        <v>61</v>
+      </c>
+      <c r="T134" t="s">
+        <v>62</v>
+      </c>
+      <c r="U134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135">
+        <v>6.21</v>
+      </c>
+      <c r="G135">
+        <v>5.4768</v>
+      </c>
+      <c r="H135">
+        <v>7.186</v>
+      </c>
+      <c r="I135">
+        <v>7.186</v>
+      </c>
+      <c r="L135">
+        <v>6.21</v>
+      </c>
+      <c r="M135">
+        <v>6.9529</v>
+      </c>
+      <c r="N135">
+        <v>7.186</v>
+      </c>
+      <c r="O135">
+        <v>1789383.539</v>
+      </c>
+      <c r="P135">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>59</v>
+      </c>
+      <c r="R135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S135" t="s">
+        <v>61</v>
+      </c>
+      <c r="T135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>57</v>
+      </c>
+      <c r="E136" t="s">
+        <v>58</v>
+      </c>
+      <c r="F136">
+        <v>0.1825</v>
+      </c>
+      <c r="G136">
+        <v>0.251580357142857</v>
+      </c>
+      <c r="H136">
+        <v>2.17</v>
+      </c>
+      <c r="I136">
+        <v>0.5664</v>
+      </c>
+      <c r="L136">
+        <v>0.122</v>
+      </c>
+      <c r="M136">
+        <v>0.39058</v>
+      </c>
+      <c r="N136">
+        <v>0.51131</v>
+      </c>
+      <c r="O136">
+        <v>1789383.539</v>
+      </c>
+      <c r="P136">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>59</v>
+      </c>
+      <c r="R136" t="s">
+        <v>60</v>
+      </c>
+      <c r="S136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T136" t="s">
+        <v>62</v>
+      </c>
+      <c r="U136" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>57</v>
+      </c>
+      <c r="E137" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137">
+        <v>0.1825</v>
+      </c>
+      <c r="G137">
+        <v>0.251580357142857</v>
+      </c>
+      <c r="H137">
+        <v>2.17</v>
+      </c>
+      <c r="I137">
+        <v>0.5664</v>
+      </c>
+      <c r="L137">
+        <v>0.122</v>
+      </c>
+      <c r="M137">
+        <v>0.39058</v>
+      </c>
+      <c r="N137">
+        <v>0.51131</v>
+      </c>
+      <c r="O137">
+        <v>1789383.539</v>
+      </c>
+      <c r="P137">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>59</v>
+      </c>
+      <c r="R137" t="s">
+        <v>60</v>
+      </c>
+      <c r="S137" t="s">
+        <v>61</v>
+      </c>
+      <c r="T137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U137" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" t="s">
+        <v>58</v>
+      </c>
+      <c r="F138">
+        <v>0.24</v>
+      </c>
+      <c r="G138">
+        <v>0.308928571428571</v>
+      </c>
+      <c r="H138">
+        <v>2.24</v>
+      </c>
+      <c r="I138">
+        <v>0.571</v>
+      </c>
+      <c r="L138">
+        <v>0.2</v>
+      </c>
+      <c r="M138">
+        <v>0.4398</v>
+      </c>
+      <c r="N138">
+        <v>0.55</v>
+      </c>
+      <c r="O138">
+        <v>1789383.539</v>
+      </c>
+      <c r="P138">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>59</v>
+      </c>
+      <c r="R138" t="s">
+        <v>60</v>
+      </c>
+      <c r="S138" t="s">
+        <v>61</v>
+      </c>
+      <c r="T138" t="s">
+        <v>62</v>
+      </c>
+      <c r="U138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" t="s">
+        <v>57</v>
+      </c>
+      <c r="E139" t="s">
+        <v>58</v>
+      </c>
+      <c r="F139">
+        <v>0.24</v>
+      </c>
+      <c r="G139">
+        <v>0.308928571428571</v>
+      </c>
+      <c r="H139">
+        <v>2.24</v>
+      </c>
+      <c r="I139">
+        <v>0.571</v>
+      </c>
+      <c r="L139">
+        <v>0.2</v>
+      </c>
+      <c r="M139">
+        <v>0.4398</v>
+      </c>
+      <c r="N139">
+        <v>0.55</v>
+      </c>
+      <c r="O139">
+        <v>1789383.539</v>
+      </c>
+      <c r="P139">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>59</v>
+      </c>
+      <c r="R139" t="s">
+        <v>60</v>
+      </c>
+      <c r="S139" t="s">
+        <v>61</v>
+      </c>
+      <c r="T139" t="s">
+        <v>62</v>
+      </c>
+      <c r="U139" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" t="s">
+        <v>58</v>
+      </c>
+      <c r="F140">
+        <v>0.01</v>
+      </c>
+      <c r="G140">
+        <v>0.0113928571428571</v>
+      </c>
+      <c r="H140">
+        <v>0.028</v>
+      </c>
+      <c r="I140">
+        <v>0.0201</v>
+      </c>
+      <c r="L140">
+        <v>0.01</v>
+      </c>
+      <c r="M140">
+        <v>0.015</v>
+      </c>
+      <c r="N140">
+        <v>0.018</v>
+      </c>
+      <c r="O140">
+        <v>1789383.539</v>
+      </c>
+      <c r="P140">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>59</v>
+      </c>
+      <c r="R140" t="s">
+        <v>60</v>
+      </c>
+      <c r="S140" t="s">
+        <v>61</v>
+      </c>
+      <c r="T140" t="s">
+        <v>62</v>
+      </c>
+      <c r="U140" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>57</v>
+      </c>
+      <c r="E141" t="s">
+        <v>58</v>
+      </c>
+      <c r="F141">
+        <v>0.01</v>
+      </c>
+      <c r="G141">
+        <v>0.0113928571428571</v>
+      </c>
+      <c r="H141">
+        <v>0.028</v>
+      </c>
+      <c r="I141">
+        <v>0.0201</v>
+      </c>
+      <c r="L141">
+        <v>0.01</v>
+      </c>
+      <c r="M141">
+        <v>0.015</v>
+      </c>
+      <c r="N141">
+        <v>0.018</v>
+      </c>
+      <c r="O141">
+        <v>1789383.539</v>
+      </c>
+      <c r="P141">
+        <v>5495386.718</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>59</v>
+      </c>
+      <c r="R141" t="s">
+        <v>60</v>
+      </c>
+      <c r="S141" t="s">
+        <v>61</v>
+      </c>
+      <c r="T141" t="s">
+        <v>62</v>
+      </c>
+      <c r="U141" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
